--- a/config_hlw/activity_016_cwk_config.xlsx
+++ b/config_hlw/activity_016_cwk_config.xlsx
@@ -28,189 +28,199 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
-    <t>在财神消消乐中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计赢金1000万</t>
-  </si>
-  <si>
-    <t>在苹果大战中累计纯赢1000万</t>
-  </si>
-  <si>
-    <t>在弹弹乐中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敲敲乐中累计赢金1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敲敲乐财神模式中累计赢金1000万</t>
-  </si>
-  <si>
-    <t>苹果大战中累计纯赢8000万</t>
-  </si>
-  <si>
-    <t>苹果大战使用500万及以上档次，种出1次金苹果</t>
-  </si>
-  <si>
-    <t>街机捕鱼使用10万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐财神模式中累计赢金8000万</t>
-  </si>
-  <si>
-    <t>弹弹乐中累计赢金8000万</t>
+    <t>财神消消乐使用96万以上档次，打出1次天女散花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id|任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text|任务描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.任务刷新首次免费，之后每次需30000金币，次数不限。</t>
+  </si>
+  <si>
+    <t>4.当日未完成的任务次日清零，刷新重置。</t>
+  </si>
+  <si>
+    <t>game_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qql_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zpg</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领40万金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condi_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.任务需在购买30日内完成，时间截止后任务失效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在财神消消乐中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计消耗100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计消耗100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹弹乐中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐财神模式中累计赢金100万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战中累计纯赢800万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果大战使用50万及以上档次，种出1次金苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街机捕鱼使用1万以上炮倍击杀一条黄金龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中累计赢金800万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弹乐中累计赢金800万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水果消消乐使用48万及以上档次，出现1次幸运时刻</t>
-  </si>
-  <si>
-    <t>水浒消消乐中累计赢金8000万</t>
-  </si>
-  <si>
-    <t>财神消消乐使用96万以上档次，打出1次天女散花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐使用10万及以上档次，敲出2次38倍财神</t>
-  </si>
-  <si>
-    <t>task_id|任务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text|任务描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.任务刷新首次免费，之后每次需30000金币，次数不限。</t>
-  </si>
-  <si>
-    <t>4.当日未完成的任务次日清零，刷新重置。</t>
-  </si>
-  <si>
-    <t>game_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shxxl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csxxl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qql_cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qql_cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shxxl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zpg</t>
-  </si>
-  <si>
-    <t>ttl</t>
-  </si>
-  <si>
-    <t>by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.畅享卡购买后立得500万金币，剩余20天每日登陆可领40万金币。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.每日完成2个任务共领400福利券，每个任务每日限领1次，共领20次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condi_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>help_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.任务需在购买30日内完成，时间截止后任务失效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在街机捕鱼中累计消耗1000万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在疯狂捕鱼中累计消耗1000万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐中累计赢金800万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐使用1万及以上档次，敲出2次38倍财神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,16 +589,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,13 +606,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +626,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,27 +635,29 @@
     <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -656,16 +668,16 @@
         <v>21807</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,16 +688,16 @@
         <v>21808</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -696,16 +708,16 @@
         <v>21809</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -716,16 +728,16 @@
         <v>21810</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -736,16 +748,16 @@
         <v>21811</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,16 +768,16 @@
         <v>21812</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -776,16 +788,16 @@
         <v>21813</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,16 +808,16 @@
         <v>21814</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -816,16 +828,16 @@
         <v>21815</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -836,16 +848,16 @@
         <v>21816</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
-        <v>80000000</v>
+        <v>8000000</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -856,7 +868,7 @@
         <v>21817</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -865,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,7 +888,7 @@
         <v>21818</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -885,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -896,16 +908,16 @@
         <v>21819</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
-        <v>80000000</v>
+        <v>8000000</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -916,16 +928,16 @@
         <v>21820</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2">
-        <v>80000000</v>
+        <v>8000000</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,7 +948,7 @@
         <v>21821</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -945,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,16 +968,16 @@
         <v>21822</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2">
-        <v>80000000</v>
+        <v>8000000</v>
       </c>
       <c r="E17" s="2">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,7 +988,7 @@
         <v>21823</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -985,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,7 +1008,7 @@
         <v>21824</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1005,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1031,10 +1043,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_hlw/activity_016_cwk_config.xlsx
+++ b/config_hlw/activity_016_cwk_config.xlsx
@@ -28,10 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
-    <t>财神消消乐使用96万以上档次，打出1次天女散花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>task_id|任务ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,78 +153,147 @@
   </si>
   <si>
     <t>在财神消消乐中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敲敲乐财神模式中累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中累计纯赢800万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苹果大战使用5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万及以上档次种出一次金苹果</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲敲乐财神模式中累计赢金800万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>敲敲乐使用1万及以上档次敲出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2次38倍财神</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在水浒消消乐中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疯狂捕鱼中累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在苹果大战中累计纯赢100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在街机捕鱼中累计消耗100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在疯狂捕鱼中累计消耗100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在街机捕鱼中累计赢金100万</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在弹弹乐中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在敲敲乐中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敲敲乐财神模式中累计赢金100万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果大战中累计纯赢800万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果大战使用50万及以上档次，种出1次金苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>街机捕鱼使用1万以上炮倍击杀一条黄金龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐财神模式中累计赢金800万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹弹乐中累计赢金800万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果消消乐使用48万及以上档次，出现1次幸运时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浒消消乐中累计赢金800万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敲敲乐使用1万及以上档次，敲出2次38倍财神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>弹弹乐中累计赢金8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐使用6万及以上档次出现一次幸运时刻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水浒消消乐中累计赢金8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>财神消消乐使用1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2万以上档次打出一次天女散花</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +315,23 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +380,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,16 +681,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +718,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,22 +734,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -665,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>21807</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>21336</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>
@@ -677,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>21808</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>21337</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>1000000</v>
@@ -697,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -705,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>21809</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>21338</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>1000000</v>
@@ -717,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -725,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>21810</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>21339</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>1000000</v>
@@ -737,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -745,10 +837,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>21811</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>21340</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>1000000</v>
@@ -757,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -765,10 +857,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>21812</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>21341</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>1000000</v>
@@ -777,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -785,10 +877,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>21813</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>21342</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="2">
         <v>1000000</v>
@@ -797,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,10 +897,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>21814</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>21343</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="2">
         <v>1000000</v>
@@ -817,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,10 +917,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>21815</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>21344</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>1000000</v>
@@ -837,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -845,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>21816</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>21345</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>8000000</v>
@@ -857,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -865,10 +957,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>21817</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>21346</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -877,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,10 +977,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>21818</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>21347</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -897,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -905,10 +997,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>21819</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>21348</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="2">
         <v>8000000</v>
@@ -917,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -925,9 +1017,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>21820</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>21349</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2">
@@ -937,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -945,9 +1037,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>21821</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>21350</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="2">
@@ -957,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,9 +1057,9 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>21822</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>21351</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="2">
@@ -977,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,10 +1077,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>21823</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
+        <v>21352</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -997,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,10 +1097,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>21824</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>21353</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -1017,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1135,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
